--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.7671357768371</v>
+        <v>194.3006069587706</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.6004435983474</v>
+        <v>265.8506623786699</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.7375240690334</v>
+        <v>240.4782482850754</v>
       </c>
       <c r="AD2" t="n">
-        <v>159767.1357768371</v>
+        <v>194300.6069587706</v>
       </c>
       <c r="AE2" t="n">
-        <v>218600.4435983474</v>
+        <v>265850.6623786699</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.027997421720126e-06</v>
+        <v>5.807020543458622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.545572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197737.5240690334</v>
+        <v>240478.2482850754</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.02575945420881</v>
+        <v>111.2925845537266</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.6501922089424</v>
+        <v>152.275424068652</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.3719984262338</v>
+        <v>137.7424713154814</v>
       </c>
       <c r="AD3" t="n">
-        <v>94025.7594542088</v>
+        <v>111292.5845537266</v>
       </c>
       <c r="AE3" t="n">
-        <v>128650.1922089424</v>
+        <v>152275.424068652</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.031539136816602e-06</v>
+        <v>8.695455336515933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>116371.9984262338</v>
+        <v>137742.4713154814</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.57211736870715</v>
+        <v>93.92419381424553</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.7693491072261</v>
+        <v>128.5112256195849</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.77030947316392</v>
+        <v>116.2462946131237</v>
       </c>
       <c r="AD4" t="n">
-        <v>76572.11736870716</v>
+        <v>93924.19381424553</v>
       </c>
       <c r="AE4" t="n">
-        <v>104769.3491072261</v>
+        <v>128511.2256195849</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.634403615794093e-06</v>
+        <v>9.564583602454286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.580078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>94770.30947316391</v>
+        <v>116246.2946131237</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.73415146785892</v>
+        <v>94.08622791339728</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.9910513101254</v>
+        <v>128.7329278224842</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.97085272897955</v>
+        <v>116.4468378689394</v>
       </c>
       <c r="AD5" t="n">
-        <v>76734.15146785892</v>
+        <v>94086.22791339728</v>
       </c>
       <c r="AE5" t="n">
-        <v>104991.0513101254</v>
+        <v>128732.9278224842</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.633750053558868e-06</v>
+        <v>9.563641385037285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.580078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>94970.85272897955</v>
+        <v>116446.8378689394</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.708508143</v>
+        <v>143.8755274619882</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.4222178909492</v>
+        <v>196.8568440137035</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.9208693764963</v>
+        <v>178.0691031114073</v>
       </c>
       <c r="AD2" t="n">
-        <v>118708.508143</v>
+        <v>143875.5274619882</v>
       </c>
       <c r="AE2" t="n">
-        <v>162422.2178909492</v>
+        <v>196856.8440137035</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.986824305057374e-06</v>
+        <v>7.300523183495522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.305338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146920.8693764964</v>
+        <v>178069.1031114073</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.89566474713293</v>
+        <v>89.81585271171038</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.73906443674815</v>
+        <v>122.8900120758815</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.2201081115859</v>
+        <v>111.1615618006068</v>
       </c>
       <c r="AD3" t="n">
-        <v>72895.66474713292</v>
+        <v>89815.85271171038</v>
       </c>
       <c r="AE3" t="n">
-        <v>99739.06443674816</v>
+        <v>122890.0120758815</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.837119538773243e-06</v>
+        <v>1.000928579948637e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.599609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>90220.1081115859</v>
+        <v>111161.5618006068</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.08604420240617</v>
+        <v>90.00623216698362</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.99955000640169</v>
+        <v>123.150497645535</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.45573330406557</v>
+        <v>111.3971869930865</v>
       </c>
       <c r="AD4" t="n">
-        <v>73086.04420240618</v>
+        <v>90006.23216698362</v>
       </c>
       <c r="AE4" t="n">
-        <v>99999.5500064017</v>
+        <v>123150.497645535</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.831710730865529e-06</v>
+        <v>1.000136750818317e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.602864583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>90455.73330406558</v>
+        <v>111397.1869930865</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.3705118090101</v>
+        <v>89.90517878604064</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7570152524678</v>
+        <v>123.0122319515684</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.04546853366564</v>
+        <v>111.2721171828948</v>
       </c>
       <c r="AD2" t="n">
-        <v>74370.5118090101</v>
+        <v>89905.17878604063</v>
       </c>
       <c r="AE2" t="n">
-        <v>101757.0152524678</v>
+        <v>123012.2319515683</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.865961568380189e-06</v>
+        <v>1.062249003193534e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92045.46853366564</v>
+        <v>111272.1171828948</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.29859418525768</v>
+        <v>97.34161471729766</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.236323205068</v>
+        <v>133.1870916651082</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.620084639565</v>
+        <v>120.475902565883</v>
       </c>
       <c r="AD2" t="n">
-        <v>81298.59418525768</v>
+        <v>97341.61471729766</v>
       </c>
       <c r="AE2" t="n">
-        <v>111236.323205068</v>
+        <v>133187.0916651082</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.503903431894214e-06</v>
+        <v>9.82931002793423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.159505208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100620.084639565</v>
+        <v>120475.902565883</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.43821194548978</v>
+        <v>92.41726762615158</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.64018086460425</v>
+        <v>126.4493827281444</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.70329342772862</v>
+        <v>114.381231113427</v>
       </c>
       <c r="AD3" t="n">
-        <v>68438.21194548978</v>
+        <v>92417.26762615159</v>
       </c>
       <c r="AE3" t="n">
-        <v>93640.18086460425</v>
+        <v>126449.3827281444</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.97653966099699e-06</v>
+        <v>1.054360231024321e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>84703.29342772863</v>
+        <v>114381.231113427</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.44800142893519</v>
+        <v>96.12443634035834</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.4947958521643</v>
+        <v>131.5216945116605</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.90371358139062</v>
+        <v>118.9694485793602</v>
       </c>
       <c r="AD2" t="n">
-        <v>73448.00142893518</v>
+        <v>96124.43634035834</v>
       </c>
       <c r="AE2" t="n">
-        <v>100494.7958521643</v>
+        <v>131521.6945116605</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.614414505836238e-06</v>
+        <v>1.04540026896216e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>90903.71358139062</v>
+        <v>118969.4485793602</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.5558511758601</v>
+        <v>151.0637399877523</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.7910547119583</v>
+        <v>206.6920735130044</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.3955575605564</v>
+        <v>186.9656721111293</v>
       </c>
       <c r="AD2" t="n">
-        <v>125555.8511758601</v>
+        <v>151063.7399877523</v>
       </c>
       <c r="AE2" t="n">
-        <v>171791.0547119583</v>
+        <v>206692.0735130044</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.736329540236552e-06</v>
+        <v>6.905029896463082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.578776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155395.5575605564</v>
+        <v>186965.6721111293</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.58862187405867</v>
+        <v>99.92582897680769</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.055443065804</v>
+        <v>136.7229276224549</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.31541481534325</v>
+        <v>123.6742833020386</v>
       </c>
       <c r="AD3" t="n">
-        <v>74588.62187405868</v>
+        <v>99925.82897680769</v>
       </c>
       <c r="AE3" t="n">
-        <v>102055.443065804</v>
+        <v>136722.9276224549</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.731863234405172e-06</v>
+        <v>9.814291108246405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.62890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>92315.41481534325</v>
+        <v>123674.2833020386</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.60000160902311</v>
+        <v>99.93720871177214</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.0710133212208</v>
+        <v>136.7384978778717</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.32949906743606</v>
+        <v>123.6883675541314</v>
       </c>
       <c r="AD4" t="n">
-        <v>74600.00160902311</v>
+        <v>99937.20871177214</v>
       </c>
       <c r="AE4" t="n">
-        <v>102071.0133212208</v>
+        <v>136738.4978778717</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.722961438858468e-06</v>
+        <v>9.801313302572198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92329.49906743606</v>
+        <v>123688.3675541314</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.77676235025839</v>
+        <v>96.08284829338949</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.9446210486267</v>
+        <v>131.4647919110626</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.31060809243644</v>
+        <v>118.9179766831</v>
       </c>
       <c r="AD2" t="n">
-        <v>73776.76235025839</v>
+        <v>96082.84829338948</v>
       </c>
       <c r="AE2" t="n">
-        <v>100944.6210486267</v>
+        <v>131464.7919110626</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.321748245185579e-06</v>
+        <v>1.012892565277081e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>91310.60809243644</v>
+        <v>118917.9766831</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.37688083524613</v>
+        <v>114.9059271005723</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.6576355053167</v>
+        <v>157.2193587506664</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.8559243273032</v>
+        <v>142.2145638103018</v>
       </c>
       <c r="AD2" t="n">
-        <v>90376.88083524612</v>
+        <v>114905.9271005723</v>
       </c>
       <c r="AE2" t="n">
-        <v>123657.6355053167</v>
+        <v>157219.3587506664</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.963338124173382e-06</v>
+        <v>8.854622045861674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.432942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>111855.9243273032</v>
+        <v>142214.5638103018</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.73128315670051</v>
+        <v>95.34558076804726</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.77766205894331</v>
+        <v>130.4560299569422</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.54133782036345</v>
+        <v>118.0054895540743</v>
       </c>
       <c r="AD3" t="n">
-        <v>70731.28315670052</v>
+        <v>95345.58076804725</v>
       </c>
       <c r="AE3" t="n">
-        <v>96777.6620589433</v>
+        <v>130456.0299569422</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.920159084772916e-06</v>
+        <v>1.027535114007878e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>87541.33782036345</v>
+        <v>118005.4895540743</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.0330582721349</v>
+        <v>137.023325291054</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.2885728775726</v>
+        <v>187.4813587056115</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.6589266240422</v>
+        <v>169.5884009625403</v>
       </c>
       <c r="AD2" t="n">
-        <v>112033.0582721348</v>
+        <v>137023.325291054</v>
       </c>
       <c r="AE2" t="n">
-        <v>153288.5728775726</v>
+        <v>187481.3587056115</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.263128863060456e-06</v>
+        <v>7.739128253442714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.031901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>138658.9266240422</v>
+        <v>169588.4009625403</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.3049190086889</v>
+        <v>97.29509651905703</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.93078005554685</v>
+        <v>133.1234434140374</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.48896525729191</v>
+        <v>120.4183288145634</v>
       </c>
       <c r="AD3" t="n">
-        <v>72304.9190086889</v>
+        <v>97295.09651905703</v>
       </c>
       <c r="AE3" t="n">
-        <v>98930.78005554684</v>
+        <v>133123.4434140373</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.845704393847136e-06</v>
+        <v>1.006621454036223e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>89488.96525729191</v>
+        <v>120418.3288145634</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.22077989944498</v>
+        <v>89.02313299730977</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.81565721432382</v>
+        <v>121.8053779903135</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.38482957845928</v>
+        <v>110.1804436698716</v>
       </c>
       <c r="AD4" t="n">
-        <v>72220.77989944498</v>
+        <v>89023.13299730977</v>
       </c>
       <c r="AE4" t="n">
-        <v>98815.65721432382</v>
+        <v>121805.3779903135</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.871152746600223e-06</v>
+        <v>1.010363487927456e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.619140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>89384.82957845928</v>
+        <v>110180.4436698716</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.8071323073231</v>
+        <v>175.5532074408613</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.9727274470237</v>
+        <v>240.1996432813845</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.4104180205678</v>
+        <v>217.2753264489955</v>
       </c>
       <c r="AD2" t="n">
-        <v>149807.132307323</v>
+        <v>175553.2074408613</v>
       </c>
       <c r="AE2" t="n">
-        <v>204972.7274470237</v>
+        <v>240199.6432813845</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.267338781057303e-06</v>
+        <v>6.173868425060929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.177734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>185410.4180205679</v>
+        <v>217275.3264489954</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.98873676834668</v>
+        <v>107.6493815387623</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.1806067341919</v>
+        <v>147.2906329768068</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.4742470739798</v>
+        <v>133.2334216892421</v>
       </c>
       <c r="AD3" t="n">
-        <v>81988.73676834669</v>
+        <v>107649.3815387623</v>
       </c>
       <c r="AE3" t="n">
-        <v>112180.6067341919</v>
+        <v>147290.6329768068</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.230429437477792e-06</v>
+        <v>9.01401401486191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.918619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101474.2470739798</v>
+        <v>133233.4216892421</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.93010966514495</v>
+        <v>93.17944093637468</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.8909258438318</v>
+        <v>127.4922218759044</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.97572169315291</v>
+        <v>115.3245431565591</v>
       </c>
       <c r="AD4" t="n">
-        <v>75930.10966514495</v>
+        <v>93179.44093637468</v>
       </c>
       <c r="AE4" t="n">
-        <v>103890.9258438318</v>
+        <v>127492.2218759044</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.66174658970825e-06</v>
+        <v>9.638031812362171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.599609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>93975.72169315291</v>
+        <v>115324.5431565591</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.63491575431085</v>
+        <v>98.82662372925957</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.0647373301925</v>
+        <v>135.2189465092474</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.2739974867835</v>
+        <v>122.3138400354243</v>
       </c>
       <c r="AD2" t="n">
-        <v>82634.91575431086</v>
+        <v>98826.62372925956</v>
       </c>
       <c r="AE2" t="n">
-        <v>113064.7373301925</v>
+        <v>135218.9465092474</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.466692272805457e-06</v>
+        <v>9.710932289769763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>102273.9974867835</v>
+        <v>122313.8400354243</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.24672919156788</v>
+        <v>93.44881603659273</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.74642982995124</v>
+        <v>127.8607927720133</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.7039635444534</v>
+        <v>115.6579381636359</v>
       </c>
       <c r="AD3" t="n">
-        <v>69246.72919156788</v>
+        <v>93448.81603659273</v>
       </c>
       <c r="AE3" t="n">
-        <v>94746.42982995124</v>
+        <v>127860.7927720133</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.960292489113057e-06</v>
+        <v>1.045216414008314e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.762369791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>85703.96354445341</v>
+        <v>115657.9381636359</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.8289145976283</v>
+        <v>90.31814971929767</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.43826923607301</v>
+        <v>123.5772770014421</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.71152915462133</v>
+        <v>111.7832351262545</v>
       </c>
       <c r="AD2" t="n">
-        <v>66828.9145976283</v>
+        <v>90318.14971929767</v>
       </c>
       <c r="AE2" t="n">
-        <v>91438.26923607301</v>
+        <v>123577.2770014421</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.954098326574147e-06</v>
+        <v>1.066582569978696e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.964192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>82711.52915462133</v>
+        <v>111783.2351262545</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.85312391593742</v>
+        <v>89.18973360467108</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.0491023116232</v>
+        <v>122.0333282912052</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.40511781033297</v>
+        <v>110.3866387139765</v>
       </c>
       <c r="AD2" t="n">
-        <v>73853.12391593742</v>
+        <v>89189.73360467107</v>
       </c>
       <c r="AE2" t="n">
-        <v>101049.1023116232</v>
+        <v>122033.3282912052</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.766586417330906e-06</v>
+        <v>1.057265780368893e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.276692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91405.11781033297</v>
+        <v>110386.6387139765</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.42620791044949</v>
+        <v>104.3868172425149</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.7791740506813</v>
+        <v>142.826648572505</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.0156879658782</v>
+        <v>129.195473691244</v>
       </c>
       <c r="AD2" t="n">
-        <v>82426.20791044949</v>
+        <v>104386.8172425149</v>
       </c>
       <c r="AE2" t="n">
-        <v>112779.1740506813</v>
+        <v>142826.648572505</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.825891728521907e-06</v>
+        <v>9.494316703971366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.578776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>102015.6879658782</v>
+        <v>129195.473691244</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.15588128611222</v>
+        <v>121.0474682037755</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.564718873694</v>
+        <v>165.6224862337358</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0083667566663</v>
+        <v>149.8157086002533</v>
       </c>
       <c r="AD2" t="n">
-        <v>96155.88128611221</v>
+        <v>121047.4682037755</v>
       </c>
       <c r="AE2" t="n">
-        <v>131564.718873694</v>
+        <v>165622.4862337358</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.633651067538884e-06</v>
+        <v>8.3230479479455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>119008.3667566663</v>
+        <v>149815.7086002533</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.51078659326802</v>
+        <v>96.31703265635966</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.844213050119</v>
+        <v>131.7852132879632</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.50609868185539</v>
+        <v>119.2078174935035</v>
       </c>
       <c r="AD3" t="n">
-        <v>71510.78659326803</v>
+        <v>96317.03265635966</v>
       </c>
       <c r="AE3" t="n">
-        <v>97844.213050119</v>
+        <v>131785.2132879632</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.886076851991401e-06</v>
+        <v>1.017335776129278e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.654947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>88506.09868185539</v>
+        <v>119207.8174935035</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.3202707843461</v>
+        <v>167.3508612926006</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.4146761623013</v>
+        <v>228.9768314193668</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.0052754900284</v>
+        <v>207.1236039997698</v>
       </c>
       <c r="AD2" t="n">
-        <v>133320.2707843461</v>
+        <v>167350.8612926006</v>
       </c>
       <c r="AE2" t="n">
-        <v>182414.6761623013</v>
+        <v>228976.8314193668</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.485791692735039e-06</v>
+        <v>6.514127706754955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.884765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>165005.2754900284</v>
+        <v>207123.6039997698</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.61639086254962</v>
+        <v>104.1179985300976</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.5664142884814</v>
+        <v>142.4588389507312</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.30042667922676</v>
+        <v>128.8627673035481</v>
       </c>
       <c r="AD3" t="n">
-        <v>78616.39086254963</v>
+        <v>104117.9985300976</v>
       </c>
       <c r="AE3" t="n">
-        <v>107566.4142884814</v>
+        <v>142458.8389507312</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.445472770915558e-06</v>
+        <v>9.359915849002773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97300.42667922676</v>
+        <v>128862.7673035481</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.65195820753782</v>
+        <v>91.79526474352248</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.142102631472</v>
+        <v>125.5983309433012</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.3938037136913</v>
+        <v>113.6114025164702</v>
       </c>
       <c r="AD4" t="n">
-        <v>74651.95820753781</v>
+        <v>91795.26474352248</v>
       </c>
       <c r="AE4" t="n">
-        <v>102142.102631472</v>
+        <v>125598.3309433012</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.750276200440317e-06</v>
+        <v>9.80254194521603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92393.8037136913</v>
+        <v>113611.4025164702</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.1680072298788</v>
+        <v>128.5454117649023</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.0542865924572</v>
+        <v>175.8815033999887</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.9740178370092</v>
+        <v>159.0956195667832</v>
       </c>
       <c r="AD2" t="n">
-        <v>100168.0072298788</v>
+        <v>128545.4117649023</v>
       </c>
       <c r="AE2" t="n">
-        <v>137054.2865924572</v>
+        <v>175881.5033999887</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.939578412935427e-06</v>
+        <v>8.233982919014624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.037109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>123974.0178370092</v>
+        <v>159095.6195667832</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.60756940198648</v>
+        <v>92.34985147486213</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.87190320810656</v>
+        <v>126.3571409757595</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.9129005159915</v>
+        <v>114.2977927844276</v>
       </c>
       <c r="AD2" t="n">
-        <v>68607.56940198647</v>
+        <v>92349.85147486214</v>
       </c>
       <c r="AE2" t="n">
-        <v>93871.90320810655</v>
+        <v>126357.1409757595</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.857021598202905e-06</v>
+        <v>1.043574657559469e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>84912.9005159915</v>
+        <v>114297.7927844276</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.66918842193874</v>
+        <v>91.41147049481442</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.58796895275883</v>
+        <v>125.0732067204118</v>
       </c>
       <c r="AC3" t="n">
-        <v>83.7515031439607</v>
+        <v>113.1363954123968</v>
       </c>
       <c r="AD3" t="n">
-        <v>67669.18842193874</v>
+        <v>91411.47049481442</v>
       </c>
       <c r="AE3" t="n">
-        <v>92587.96895275883</v>
+        <v>125073.2067204118</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.981390683736535e-06</v>
+        <v>1.062502471040581e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.873046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>83751.5031439607</v>
+        <v>113136.3954123968</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.96492791399494</v>
+        <v>102.2974597286081</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.6210068768381</v>
+        <v>139.9678974460311</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.3954230626632</v>
+        <v>126.6095577599975</v>
       </c>
       <c r="AD2" t="n">
-        <v>85964.92791399494</v>
+        <v>102297.4597286081</v>
       </c>
       <c r="AE2" t="n">
-        <v>117621.0068768381</v>
+        <v>139967.8974460311</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.248355202740528e-06</v>
+        <v>9.328236302215289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>106395.4230626632</v>
+        <v>126609.5577599975</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.98766896884013</v>
+        <v>94.40099157336172</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.76021632117057</v>
+        <v>129.1636013484399</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.62099567580937</v>
+        <v>116.8364085180321</v>
       </c>
       <c r="AD3" t="n">
-        <v>69987.66896884012</v>
+        <v>94400.99157336172</v>
       </c>
       <c r="AE3" t="n">
-        <v>95760.21632117058</v>
+        <v>129163.6013484399</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.93761930791103e-06</v>
+        <v>1.035724605582939e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.720052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>86620.99567580936</v>
+        <v>116836.4085180321</v>
       </c>
     </row>
   </sheetData>
